--- a/biology/Botanique/Philonotis/Philonotis.xlsx
+++ b/biology/Botanique/Philonotis/Philonotis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philonotis est un genre de la famille des Bartramiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un genre de mousses[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un genre de mousses.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mousses du genre Philonotis ont une distribution cosmopolite[1], elles poussent principalement dans le biome tropical saisonnier sec[2]. Leur aire de répartition naturelle s'étend du Mexique au Honduras[2]. 
-Le genre a été décrit pour la première fois par Samuel Elisée Bridel-Brideri[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mousses du genre Philonotis ont une distribution cosmopolite, elles poussent principalement dans le biome tropical saisonnier sec. Leur aire de répartition naturelle s'étend du Mexique au Honduras. 
+Le genre a été décrit pour la première fois par Samuel Elisée Bridel-Brideri.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (4 janvier 2024)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (4 janvier 2024) :
 Philonotis africana (Müll.Hal.) Rehmann ex Paris
 Philonotis amblystegioides Demaret &amp; P.de la Varde
 Philonotis americana Dism.
@@ -756,10 +774,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Philonotis Brid.[3].
-Philonotis a pour synonyme[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Philonotis Brid..
+Philonotis a pour synonyme :
 Philonotula Hampe</t>
         </is>
       </c>
